--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2030.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904321F2-07C6-4138-BD41-71ACDBCB2208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20320944-1BF8-4CE7-ABE9-605DEDC9845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,16 +175,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
@@ -3299,7 +3299,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
@@ -4338,11 +4338,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4628,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -4654,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -4674,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -12327,99 +12327,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6493977733771956</v>
+        <v>5.9844579960394757</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5478284787456058</v>
+        <v>5.893045630871045</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.338231556872727</v>
+        <v>5.7044084011854546</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2545659341785669</v>
+        <v>5.6291093407607109</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1793155103831401</v>
+        <v>5.561383959344826</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2320951672355047</v>
+        <v>5.6088856505119544</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1407726005931487</v>
+        <v>5.5266953405338342</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1946431104217039</v>
+        <v>6.4751787993795338</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6588551837425083</v>
+        <v>6.8929696653682582</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6356454690406936</v>
+        <v>6.8720809221366252</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5071686050338506</v>
+        <v>6.7564517445304659</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5555189225489592</v>
+        <v>6.7999670302940638</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7632372655482165</v>
+        <v>6.9869135389933943</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.70776641966465</v>
+        <v>6.9369897776981855</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2360000011806793</v>
+        <v>6.5124000010626109</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4181319340662837</v>
+        <v>6.6763187406596556</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5053147955266235</v>
+        <v>6.7547833159739614</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2894872330129274</v>
+        <v>6.5605385097116349</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9904268359840804</v>
+        <v>6.2913841523856728</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9579660482423904</v>
+        <v>6.2621694434181521</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9334831137771387</v>
+        <v>6.2401348023994245</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8042584536640733</v>
+        <v>6.1238326082976666</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3595254673239552</v>
+        <v>5.7235729205915602</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1777027986355559</v>
+        <v>5.5599325187720012</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12428,99 +12428,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5328720647420238</v>
+        <v>1.3795848582678212</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4375228580551389</v>
+        <v>1.2937705722496253</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3765405878876029</v>
+        <v>1.2388865290988427</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2608096876967936</v>
+        <v>1.1347287189271145</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2211268201876757</v>
+        <v>1.0990141381689083</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2601216751855822</v>
+        <v>1.134109507667024</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.346619579949238</v>
+        <v>1.2119576219543144</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7735514668584551</v>
+        <v>1.5961963201726095</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9749914361926859</v>
+        <v>1.7774922925734171</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1267425023484452</v>
+        <v>1.9140682521136005</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9800901453200979</v>
+        <v>1.7820811307880879</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0503241379819483</v>
+        <v>1.8452917241837534</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0457742704122652</v>
+        <v>1.8411968433710391</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9658824360038716</v>
+        <v>1.7692941924034846</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7072788722255796</v>
+        <v>1.5365509850030217</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7473464532689524</v>
+        <v>1.5726118079420572</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8198630793171111</v>
+        <v>1.6378767713853999</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8167285831974376</v>
+        <v>1.635055724877694</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.909820916939392</v>
+        <v>1.718838825245453</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0417667123152063</v>
+        <v>1.8375900410836858</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.128245163478276</v>
+        <v>1.9154206471304485</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0095363044578853</v>
+        <v>1.8085826740120967</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7439889915569136</v>
+        <v>1.569590092401222</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5688470354353672</v>
+        <v>1.4119623318918306</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12529,99 +12529,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5936655321605939</v>
+        <v>3.2342989789445347</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3705582798920908</v>
+        <v>3.0335024519028817</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.134597701105279</v>
+        <v>2.8211379309947513</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2022189122816345</v>
+        <v>2.8819970210534711</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1342394575319918</v>
+        <v>2.8208155117787928</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1709793278831344</v>
+        <v>2.8538813950948212</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2167177971941703</v>
+        <v>3.7950460174747529</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2961246565875904</v>
+        <v>4.7665121909288315</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5976294086661316</v>
+        <v>5.0378664677995193</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3641704232632765</v>
+        <v>4.8277533809369491</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3474601782910476</v>
+        <v>4.812714160461943</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7284889182887753</v>
+        <v>5.1556400264598974</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9065666712583935</v>
+        <v>5.3159100041325544</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4832362832591564</v>
+        <v>4.9349126549332407</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9958221122484234</v>
+        <v>4.4962399010235803</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7334530379129065</v>
+        <v>4.2601077341216156</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7893740458202343</v>
+        <v>4.3104366412382111</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6873979787279056</v>
+        <v>4.2186581808551153</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6288594441882003</v>
+        <v>4.1659734997693807</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9837556729870336</v>
+        <v>4.4853801056883302</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2083255492085536</v>
+        <v>4.6874929942876973</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9825769206888912</v>
+        <v>4.4843192286200022</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4378827940214798</v>
+        <v>3.9940945146193312</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7517911963523241</v>
+        <v>3.3766120767170915</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12630,99 +12630,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3755325760160324</v>
+        <v>0.33797931841442919</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29110772982078764</v>
+        <v>0.26199695683870888</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22069510715571258</v>
+        <v>0.19862559644014133</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26821383392571696</v>
+        <v>0.24139245053314531</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22713763512271623</v>
+        <v>0.20442387161044462</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.18171912763132025</v>
+        <v>0.16354721486818821</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41066337606933445</v>
+        <v>0.369597038462401</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76791284108470226</v>
+        <v>0.69112155697623201</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93979246367615887</v>
+        <v>0.84581321730854286</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98518036797342479</v>
+        <v>0.88666233117608229</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99822549377918235</v>
+        <v>0.89840294440126411</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91539824543805115</v>
+        <v>0.8238584208942461</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98475273413513531</v>
+        <v>0.88627746072162183</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90583617381975201</v>
+        <v>0.81525255643777683</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.79864440945738713</v>
+        <v>0.71877996851164838</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73865268494735115</v>
+        <v>0.66478741645261608</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67381564740909161</v>
+        <v>0.60643408266818244</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63564959763494</v>
+        <v>0.57208463787144603</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81295775835688322</v>
+        <v>0.73166198252119496</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93668931030277947</v>
+        <v>0.84302037927250162</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0460661885257028</v>
+        <v>0.94145956967313249</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.067692488257042</v>
+        <v>0.96092323943133773</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.79989555527805201</v>
+        <v>0.71990599975024683</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56310828105589394</v>
+        <v>0.50679745295030454</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -12731,99 +12731,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3395827381406868</v>
+        <v>3.0056244643266181</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0113315752394914</v>
+        <v>2.7101984177155423</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7896793674528362</v>
+        <v>2.5107114307075529</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7163517492520892</v>
+        <v>2.4447165743268804</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8003749773273121</v>
+        <v>2.520337479594581</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7819257974480016</v>
+        <v>2.5037332177032017</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0472467998785446</v>
+        <v>2.7425221198906904</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5666245580862954</v>
+        <v>3.2099621022776659</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9946112979046626</v>
+        <v>3.5951501681141962</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2441978475179098</v>
+        <v>3.8197780627661189</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5923076791177584</v>
+        <v>4.1330769112059826</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8699463057605303</v>
+        <v>4.3829516751844775</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9505826139215134</v>
+        <v>4.4555243525293617</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6657490419430072</v>
+        <v>4.199174137748706</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.428809431237215</v>
+        <v>3.9859284881134935</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3500419601332734</v>
+        <v>3.9150377641199459</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3166356906131726</v>
+        <v>3.8849721215518551</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2641680496927163</v>
+        <v>3.8377512447234445</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3437537883405879</v>
+        <v>3.9093784095065289</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4291889528900308</v>
+        <v>3.9862700576010281</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8322157095564355</v>
+        <v>4.3489941386007915</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7926376181940515</v>
+        <v>4.3133738563746462</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5371001363291246</v>
+        <v>4.0833901226962119</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9541499560137563</v>
+        <v>3.5587349604123806</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -12832,99 +12832,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Pc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1640732816936561</v>
+        <v>4.6476659535242915</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Pc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0154232703850852</v>
+        <v>4.5138809433465763</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Pc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7097810167647323</v>
+        <v>4.2388029150882582</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Pc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8518571826712327</v>
+        <v>4.36667146440411</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Pc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9336049551456211</v>
+        <v>4.4402444596310593</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Pc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.898894074312854</v>
+        <v>4.4090046668815681</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Pc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1622221188071196</v>
+        <v>4.6459999069264084</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Pc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2971837613777222</v>
+        <v>5.6674653852399501</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Pc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6100639031622741</v>
+        <v>5.9490575128460472</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Pc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.691203155597937</v>
+        <v>6.0220828400381423</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Pc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7630998755072964</v>
+        <v>6.0867898879565665</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Pc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1170897774976369</v>
+        <v>6.4053807997478733</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Pc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0194487211779286</v>
+        <v>6.3175038490601363</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Pc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6851627450425175</v>
+        <v>6.0166464705382658</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Pc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2868816458116754</v>
+        <v>5.6581934812305077</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Pc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1184552212738561</v>
+        <v>5.5066096991464706</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Pc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3328384909676245</v>
+        <v>5.6995546418708622</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Pc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1315941012712463</v>
+        <v>5.5184346911441224</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Pc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8489007181748702</v>
+        <v>5.2640106463573835</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Pc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9501981729520255</v>
+        <v>5.3551783556568235</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Pc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.141706272061362</v>
+        <v>5.5275356448552264</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Pc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8188694869314448</v>
+        <v>5.2369825382383004</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Pc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3540936421089658</v>
+        <v>4.8186842778980683</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Pc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3080720767534579</v>
+        <v>4.7772648690781123</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -12933,99 +12933,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6777725113083197</v>
+        <v>2.4099952601774879</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4303812641067681</v>
+        <v>2.1873431376960912</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.387794453049652</v>
+        <v>2.149015007744687</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.428507182611281</v>
+        <v>2.1856564643501528</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3712257516043462</v>
+        <v>2.1341031764439116</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5090384743649299</v>
+        <v>2.2581346269284368</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0896754443783632</v>
+        <v>2.780707899940527</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5495091473960989</v>
+        <v>3.194558232656489</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0989531135351696</v>
+        <v>3.6890578021816531</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3846031060542314</v>
+        <v>3.9461427954488086</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4354618944130175</v>
+        <v>3.9919157049717158</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6033837942118891</v>
+        <v>4.1430454147907003</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.521502797233909</v>
+        <v>4.0693525175105183</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5540084799214524</v>
+        <v>4.0986076319293074</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3946829655475019</v>
+        <v>3.9552146689927516</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1076087945257536</v>
+        <v>3.6968479150731781</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1445311503119626</v>
+        <v>3.7300780352807661</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9908533780808195</v>
+        <v>3.5917680402727377</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9514391557109478</v>
+        <v>3.5562952401398529</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0165304978337959</v>
+        <v>3.6148774480504162</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0810316623132215</v>
+        <v>3.6729284960818989</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5761592512582268</v>
+        <v>3.2185433261324041</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.414700789606842</v>
+        <v>3.073230710646158</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9540533689803179</v>
+        <v>2.6586480320822865</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -13034,99 +13034,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7064037042138582</v>
+        <v>1.5357633337924725</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5960801053687965</v>
+        <v>1.4364720948319167</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5329305944770186</v>
+        <v>1.3796375350293169</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5155186196148549</v>
+        <v>1.3639667576533694</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.574820255611918</v>
+        <v>1.4173382300507262</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6936040759400108</v>
+        <v>1.5242436683460097</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6693859860107607</v>
+        <v>2.4024473874096843</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2206067581342412</v>
+        <v>2.8985460823208173</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.493687723754066</v>
+        <v>3.1443189513786596</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5050163940352799</v>
+        <v>3.1545147546317516</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6985139072370194</v>
+        <v>3.3286625165133175</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9038125969796837</v>
+        <v>3.5134313372817152</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7977021742577968</v>
+        <v>3.417931956832017</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4667206636014094</v>
+        <v>3.1200485972412686</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0280597759376193</v>
+        <v>2.7252537983438572</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8955218395387794</v>
+        <v>2.6059696555849015</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7758114504465086</v>
+        <v>2.498230305401858</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7092760670265505</v>
+        <v>2.4383484603238958</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7026304963267562</v>
+        <v>2.4323674466940806</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7958280154092812</v>
+        <v>2.5162452138683533</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7408529360149192</v>
+        <v>2.4667676424134273</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5321736594773108</v>
+        <v>2.2789562935295797</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1241698593997063</v>
+        <v>1.9117528734597358</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8829768964932629</v>
+        <v>1.6946792068439367</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -13135,99 +13135,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6530520957371464</v>
+        <v>1.4877468861634318</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.527090272199805</v>
+        <v>1.3743812449798245</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4783991637916727</v>
+        <v>1.3305592474125056</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3885120378677027</v>
+        <v>1.2496608340809323</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4076380018291723</v>
+        <v>1.2668742016462551</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3945054474429326</v>
+        <v>1.2550549026986393</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3683631568867378</v>
+        <v>1.231526841198064</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5712050993883655</v>
+        <v>1.4140845894495289</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.421129272801759</v>
+        <v>1.2790163455215833</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5081471916050226</v>
+        <v>1.3573324724445204</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6568230384364115</v>
+        <v>1.4911407345927705</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8590341917448017</v>
+        <v>1.6731307725703215</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8921839305156776</v>
+        <v>1.7029655374641099</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8296762270181643</v>
+        <v>1.6467086043163479</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7213517465413684</v>
+        <v>1.5492165718872317</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7408367199067925</v>
+        <v>1.5667530479161134</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7525823249213799</v>
+        <v>1.5773240924292418</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7175279390016056</v>
+        <v>1.545775145101445</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.745111466563201</v>
+        <v>1.5706003199068812</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8466653845162866</v>
+        <v>1.6619988460646582</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.948565375341559</v>
+        <v>1.7537088378074031</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8930102017408996</v>
+        <v>1.7037091815668099</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.656536460095698</v>
+        <v>1.4908828140861281</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6886669195427499</v>
+        <v>1.519800227588475</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -13236,99 +13236,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4945910788200951</v>
+        <v>2.2451319709380857</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3065053268015205</v>
+        <v>2.0758547941213683</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2253906672908759</v>
+        <v>2.0028516005617885</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2309343127739658</v>
+        <v>2.0078408814965694</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2370913323107473</v>
+        <v>2.0133821990796723</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2806143488346091</v>
+        <v>2.0525529139511485</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6500912427307322</v>
+        <v>2.3850821184576589</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.099649536649919</v>
+        <v>2.7896845829849273</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3702751628056689</v>
+        <v>3.0332476465251021</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5486620147933285</v>
+        <v>3.1937958133139959</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5682928864090799</v>
+        <v>3.211463597768172</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6856080912854043</v>
+        <v>3.3170472821568637</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7361858160350976</v>
+        <v>3.3625672344315878</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5653510079645301</v>
+        <v>3.2088159071680771</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4382977143007252</v>
+        <v>3.0944679428706525</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2155749127814426</v>
+        <v>2.8940174215032983</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1432560024380494</v>
+        <v>2.8289304021942447</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1330908504312078</v>
+        <v>2.819781765388087</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1995333205716365</v>
+        <v>2.8795799885144726</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3922527648313521</v>
+        <v>3.0530274883482171</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6365214613700165</v>
+        <v>3.2728693152330148</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4417347811074075</v>
+        <v>3.0975613029966667</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1165778856914033</v>
+        <v>2.8049200971222628</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6967108842969392</v>
+        <v>2.4270397958672456</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -13337,99 +13337,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82373642707215022</v>
+        <v>0.7413627843649353</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74031685000439829</v>
+        <v>0.6662851650039584</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69598804447160134</v>
+        <v>0.62638924002444119</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6729068466672169</v>
+        <v>0.60561616200049528</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68256263493643099</v>
+        <v>0.61430637144278788</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7341553818924148</v>
+        <v>0.6607398437031734</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86610304679603511</v>
+        <v>0.7794927421164316</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.040507080020457</v>
+        <v>0.93645637201841125</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1672725827783252</v>
+        <v>1.0505453245004925</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2483852601390062</v>
+        <v>1.1235467341251058</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3297464195187578</v>
+        <v>1.196771777566882</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3782826349202899</v>
+        <v>1.2404543714282608</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3393434828412378</v>
+        <v>1.2054091345571141</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2658131334956673</v>
+        <v>1.1392318201461005</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1831060755204914</v>
+        <v>1.0647954679684424</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1169869999039004</v>
+        <v>1.0052882999135104</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.108600144248014</v>
+        <v>0.99774012982321258</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1674159395219761</v>
+        <v>1.0506743455697787</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2358242219047724</v>
+        <v>1.1122417997142953</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2762195521953876</v>
+        <v>1.1485975969758488</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4036295727874322</v>
+        <v>1.2632666155086891</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3189373090344525</v>
+        <v>1.1870435781310074</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1980125077150598</v>
+        <v>1.078211256943554</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0094619527923125</v>
+        <v>0.90851575751308111</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -13438,99 +13438,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4410564586448791</v>
+        <v>4.8969508127803909</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3553432412520063</v>
+        <v>4.8198089171268066</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5936397124431743</v>
+        <v>5.034275741198857</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0949279811450641</v>
+        <v>4.5854351830305573</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7534971014523482</v>
+        <v>4.2781473913071135</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7061000291363397</v>
+        <v>4.2354900262227053</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.867984037362036</v>
+        <v>4.381185633625833</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1470892560118218</v>
+        <v>4.6323803304106397</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5865247903865445</v>
+        <v>4.1278723113478906</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7996149752508632</v>
+        <v>3.419653477725777</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0369945879793772</v>
+        <v>4.5332951291814396</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4391778797712558</v>
+        <v>4.89526009179413</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4266499411889653</v>
+        <v>4.8839849470700694</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.453619959550279</v>
+        <v>4.9082579635952515</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6746840333911068</v>
+        <v>4.2072156300519961</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8394524362299371</v>
+        <v>5.2555071926069434</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3904386366532187</v>
+        <v>4.8513947729878977</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2463609647887246</v>
+        <v>4.7217248683098525</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4063288046188607</v>
+        <v>4.8656959241569737</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8288953741330074</v>
+        <v>5.2460058367197062</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1355769688374187</v>
+        <v>5.5220192719536767</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1115132140405368</v>
+        <v>5.5003618926364828</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.085047356273197</v>
+        <v>5.4765426206458772</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1485086052955626</v>
+        <v>5.5336577447660069</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -13539,99 +13539,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4748447365916117</v>
+        <v>8.5273602629324508</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3394460359797691</v>
+        <v>8.4055014323817918</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.2189602846313132</v>
+        <v>8.2970642561681824</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1723470812984154</v>
+        <v>8.2551123731685738</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.103522280884226</v>
+        <v>8.1931700527958036</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.239817127261567</v>
+        <v>8.3158354145354121</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.432024289387309</v>
+        <v>9.3888218604485782</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.896660156130848</v>
+        <v>9.8069941405177641</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.574615718949982</v>
+        <v>10.417154147054985</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.152547033221593</v>
+        <v>10.037292329899433</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.340752682788516</v>
+        <v>10.206677414509665</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.416044544029576</v>
+        <v>10.274440089626617</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.598328554367857</v>
+        <v>10.438495698931071</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.388159733427633</v>
+        <v>10.249343760084871</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.058172695187954</v>
+        <v>9.9523554256691593</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.00546833375569</v>
+        <v>9.904921500380123</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.079715662031253</v>
+        <v>9.9717440958281287</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.201035489320411</v>
+        <v>10.080931940388369</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.60861381563355</v>
+        <v>9.5477524340701958</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.917141891896838</v>
+        <v>9.8254277027071559</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.103430081667465</v>
+        <v>9.9930870735007193</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.653414226448803</v>
+        <v>9.5880728038039216</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6618013651425656</v>
+        <v>8.6956212286283083</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5274468596297481</v>
+        <v>8.5747021736667737</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -13640,99 +13640,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31191183149491664</v>
+        <v>0.28072064834542493</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29181254180375243</v>
+        <v>0.26263128762337723</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28347007053994133</v>
+        <v>0.25512306348594721</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27710134011835075</v>
+        <v>0.24939120610651566</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28071501723757475</v>
+        <v>0.25264351551381731</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29819493329298757</v>
+        <v>0.26837543996368884</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34985470544867658</v>
+        <v>0.31486923490380891</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40560559758784998</v>
+        <v>0.36504503782906494</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4473084598590702</v>
+        <v>0.40257761387316315</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47951022790186532</v>
+        <v>0.43155920511167883</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5159448396505194</v>
+        <v>0.46435035568546751</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53015006377114748</v>
+        <v>0.47713505739403278</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51491260877863954</v>
+        <v>0.4634213479007756</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47277886915100842</v>
+        <v>0.42550098223590754</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41675590815901548</v>
+        <v>0.37508031734311398</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41344657364873638</v>
+        <v>0.37210191628386274</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41660097385762468</v>
+        <v>0.37494087647186219</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40747916477548718</v>
+        <v>0.36673124829793846</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4198652031940236</v>
+        <v>0.37787868287462129</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44827038071833203</v>
+        <v>0.40344334264649884</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46232698864057731</v>
+        <v>0.41609428977651952</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4215111497401392</v>
+        <v>0.37936003476612529</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38436989402143318</v>
+        <v>0.34593290461928983</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33437073181670179</v>
+        <v>0.30093365863503158</v>
       </c>
     </row>
   </sheetData>
@@ -19862,99 +19862,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49606557611342261</v>
+        <v>0.44645901850208036</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53733891624818775</v>
+        <v>0.48360502462336902</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51209458092014826</v>
+        <v>0.46088512282813343</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50200273467530054</v>
+        <v>0.45180246120777046</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48866425818312187</v>
+        <v>0.43979783236480968</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51680701106532245</v>
+        <v>0.46512630995879028</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50689222562164526</v>
+        <v>0.45620300305948075</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90528837964808295</v>
+        <v>0.81475954168327469</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0594333611434861</v>
+        <v>0.95349002502913749</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0473675300417444</v>
+        <v>0.94263077703756992</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0133051651297271</v>
+        <v>0.91197464861675448</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.01874481906711</v>
+        <v>0.91687033716039901</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0796854640854179</v>
+        <v>0.97171691767687607</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0545321725091006</v>
+        <v>0.94907895525819042</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76066267710538893</v>
+        <v>0.68459640939485</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98098717852904715</v>
+        <v>0.88288846067614246</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98627090709005771</v>
+        <v>0.88764381638105194</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91278920300816901</v>
+        <v>0.82151028270735205</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73025645912800208</v>
+        <v>0.65723081321520183</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67680156111702938</v>
+        <v>0.60912140500532652</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7040427060591159</v>
+        <v>0.63363843545320431</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69748785626085985</v>
+        <v>0.62773907063477385</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50097120956893804</v>
+        <v>0.45087408861204425</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Qc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49087104805483156</v>
+        <v>0.44178394324934844</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19963,99 +19963,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0004285393587257E-2</v>
+        <v>-1.8003856854228534E-2</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.8688195248337736E-2</v>
+        <v>-4.3819375723503959E-2</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.3225122532180279E-2</v>
+        <v>-4.7902610278962254E-2</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6000345584604922E-2</v>
+        <v>-5.9400311026144431E-2</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.4242305327361549E-2</v>
+        <v>-6.6818074794625398E-2</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.9427197561646295E-2</v>
+        <v>-6.2484477805481671E-2</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.0822833855675851E-2</v>
+        <v>-6.3740550470108265E-2</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11111897781261723</v>
+        <v>0.1000070800313555</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15517885665077527</v>
+        <v>0.13966097098569774</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19915141953060778</v>
+        <v>0.17923627757754701</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10681572273419927</v>
+        <v>9.6134150460779333E-2</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.2050125425225842E-2</v>
+        <v>7.3845112882703248E-2</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8432914605055929E-2</v>
+        <v>4.3589623144550338E-2</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4339446570111064E-2</v>
+        <v>5.7905501913099962E-2</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3198201841557847E-2</v>
+        <v>1.1878381657402062E-2</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0472550430313287E-2</v>
+        <v>9.4252953872819584E-3</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8248644866549434E-2</v>
+        <v>1.642378037989449E-2</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.253107347335325E-2</v>
+        <v>4.727796612601793E-2</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1397825856465317</v>
+        <v>0.12580432708187855</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15927777759566836</v>
+        <v>0.14334999983610153</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11468750470909821</v>
+        <v>0.10321875423818838</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3499670191741482E-2</v>
+        <v>7.5149703172567334E-2</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.670274345831139E-2</v>
+        <v>2.4032469112480252E-2</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5917486346859772E-2</v>
+        <v>-1.4325737712173795E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20064,99 +20064,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16445643719233746</v>
+        <v>-0.14801079347310372</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28272588585088781</v>
+        <v>-0.25445329726579902</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41865391435472266</v>
+        <v>-0.37678852291925041</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40586272898857856</v>
+        <v>-0.3652764560897207</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41534093088655644</v>
+        <v>-0.37380683779790086</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40744135751738075</v>
+        <v>-0.36669722176564268</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14374742615943917</v>
+        <v>-0.12937268354349526</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23919852211176545</v>
+        <v>0.21527866990058891</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34998514818499088</v>
+        <v>0.3149866333664918</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36115725865168058</v>
+        <v>0.32504153278651254</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30341660329141673</v>
+        <v>0.27307494296227502</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39312979931018105</v>
+        <v>0.35381681937916298</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34223204743914315</v>
+        <v>0.30800884269522882</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2632490250348396</v>
+        <v>0.23692412253135564</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14321789930163603</v>
+        <v>0.12889610937147244</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.58345074608668E-2</v>
+        <v>4.1251056714780118E-2</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4038416171870018E-2</v>
+        <v>8.4634574554683026E-2</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1185721215903427E-2</v>
+        <v>6.4067149094313089E-2</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.3382759765339301E-2</v>
+        <v>-4.8044483788805374E-2</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4639620161697535E-2</v>
+        <v>4.0175658145527787E-2</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5016498310662112E-2</v>
+        <v>8.5514848479595895E-2</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4928422669498455E-2</v>
+        <v>2.2435580402548609E-2</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23643621969655976</v>
+        <v>-0.21279259772690379</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37681359674087861</v>
+        <v>-0.3391322370667908</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20165,99 +20165,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55160657433858729</v>
+        <v>-0.49644591690472856</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55672503363826553</v>
+        <v>-0.50105253027443897</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5697436894830552</v>
+        <v>-0.51276932053474966</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.57144820330488488</v>
+        <v>-0.51430338297439648</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58148211295809749</v>
+        <v>-0.52333390166228777</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.60641534083962811</v>
+        <v>-0.54577380675566534</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55240546336336971</v>
+        <v>-0.49716491702703269</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38412286482818786</v>
+        <v>-0.34571057834536906</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30661451319362765</v>
+        <v>-0.27595306187426488</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32909307734402576</v>
+        <v>-0.29618376960962323</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39096572326855111</v>
+        <v>-0.35186915094169602</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43151461011616976</v>
+        <v>-0.38836314910455283</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41602060185000594</v>
+        <v>-0.37441854166500538</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44773591725598022</v>
+        <v>-0.40296232553038225</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43201471255841961</v>
+        <v>-0.38881324130257772</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48377847250574252</v>
+        <v>-0.43540062525516832</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.520267060300177</v>
+        <v>-0.46824035427015925</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46667259715817272</v>
+        <v>-0.42000533744235541</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34374467938394071</v>
+        <v>-0.30937021144554666</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31730474723714275</v>
+        <v>-0.28557427251342848</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3248216079923863</v>
+        <v>-0.29233944719314769</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38531820261598509</v>
+        <v>-0.34678638235438658</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46700110848201065</v>
+        <v>-0.42030099763380957</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48832533681790485</v>
+        <v>-0.43949280313611433</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -20266,99 +20266,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26774469131442763</v>
+        <v>-0.24097022218298492</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33000441959257698</v>
+        <v>-0.29700397763331932</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37981367831616758</v>
+        <v>-0.34183231048455082</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38886174616397073</v>
+        <v>-0.34997557154757364</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39553245037513696</v>
+        <v>-0.35597920533762328</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42923638776434409</v>
+        <v>-0.38631274898790968</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40335736651643456</v>
+        <v>-0.36302162986479108</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21890137781517585</v>
+        <v>-0.19701124003365827</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.3003684847078292E-2</v>
+        <v>-4.7703316362370456E-2</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2841549357521551E-2</v>
+        <v>5.6557394421769394E-2</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1565821399892654</v>
+        <v>0.14092392599033887</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.18091606783265676</v>
+        <v>0.16282446104939111</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14223673882388585</v>
+        <v>0.12801306494149725</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3459909937985669E-2</v>
+        <v>8.4113918944187113E-2</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8562754692317078E-2</v>
+        <v>2.5706479223085374E-2</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3468730646636596E-3</v>
+        <v>-2.1121857581972939E-3</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.030782838521733E-2</v>
+        <v>-1.8277045546695597E-2</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4461258454100514E-2</v>
+        <v>-2.2015132608690462E-2</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5639711304752286E-2</v>
+        <v>-1.407574017427706E-2</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.2148912707990311E-2</v>
+        <v>-4.6934021437191283E-2</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4041367509618415E-2</v>
+        <v>3.9637230758656571E-2</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0486154308618058E-2</v>
+        <v>1.8437538877756253E-2</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3896643164508057E-2</v>
+        <v>-1.2506978848057251E-2</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.9311937411383958E-2</v>
+        <v>-8.9380743670245566E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20367,99 +20367,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65137023922171555</v>
+        <v>0.58623321529954397</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72350431032696205</v>
+        <v>0.65115387929426582</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57277717103603976</v>
+        <v>0.51549945393243579</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65095194551431368</v>
+        <v>0.58585675096288237</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66574627361380034</v>
+        <v>0.59917164625242036</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67084142012697889</v>
+        <v>0.60375727811428093</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61844423938201631</v>
+        <v>0.55659981544381465</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0661042718286069</v>
+        <v>0.95949384464574616</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2202848494337675</v>
+        <v>1.0982563644903907</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2662673536711537</v>
+        <v>1.1396406183040384</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1284731159606058</v>
+        <v>1.0156258043645452</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3264381849515454</v>
+        <v>1.1937943664563908</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3640661673543211</v>
+        <v>1.227659550618889</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2563798753464779</v>
+        <v>1.1307418878118303</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0965168341875049</v>
+        <v>0.98686515076875458</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9948251080090369</v>
+        <v>0.89534259720813336</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1497532977708955</v>
+        <v>1.0347779679938061</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1136479293901003</v>
+        <v>1.0022831364510902</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90602075778101043</v>
+        <v>0.81541868200290935</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87019693353050998</v>
+        <v>0.78317724017745904</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97841932577605339</v>
+        <v>0.88057739319844819</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82220811812309746</v>
+        <v>0.7399873063107878</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6615844794727237</v>
+        <v>0.59542603152545137</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70727383949764322</v>
+        <v>0.63654645554787892</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -20468,99 +20468,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36555683195284067</v>
+        <v>-0.32900114875755659</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37759727051224967</v>
+        <v>-0.33983754346102474</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40335202822619248</v>
+        <v>-0.36301682540357322</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41082362989060789</v>
+        <v>-0.36974126690154713</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39824093441558223</v>
+        <v>-0.35841684097402404</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4222195468617686</v>
+        <v>-0.37999759217559176</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39391921305748739</v>
+        <v>-0.35452729175173869</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23077232378236537</v>
+        <v>-0.20769509140412884</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11453089233756793</v>
+        <v>-0.10307780310381114</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.8449699301547946E-2</v>
+        <v>-7.9604729371393151E-2</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.2519899357829202E-2</v>
+        <v>-2.9267909422046285E-2</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.4051964376331155E-2</v>
+        <v>-4.8646767938698043E-2</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.0022515407760851E-2</v>
+        <v>-5.4020263866984768E-2</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6324543479829606E-2</v>
+        <v>-5.9692089131846642E-2</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11390832080771965</v>
+        <v>-0.10251748872694769</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14721824582657506</v>
+        <v>-0.13249642124391753</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16828113069306871</v>
+        <v>-0.15145301762376184</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19236981628143926</v>
+        <v>-0.17313283465329532</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17987922696048364</v>
+        <v>-0.16189130426443529</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20695409279589697</v>
+        <v>-0.18625868351630726</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17078787090960007</v>
+        <v>-0.1537090838186401</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23023803300732093</v>
+        <v>-0.20721422970658884</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27540615516519285</v>
+        <v>-0.24786553964867358</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29506510723875762</v>
+        <v>-0.26555859651488184</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -20569,99 +20569,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5850574107178048</v>
+        <v>-1.4265516696460245</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.598344302508004</v>
+        <v>-1.4385098722572036</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6127359538391932</v>
+        <v>-1.4514623584552737</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.619545318450063</v>
+        <v>-1.4575907866050568</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6053636999335434</v>
+        <v>-1.444827329940189</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5743833529701075</v>
+        <v>-1.4169450176730967</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3847287667963177</v>
+        <v>-1.246255890116686</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2015293185170446</v>
+        <v>-1.0813763866653401</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1740259741771641</v>
+        <v>-1.056623376759448</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1484385804966737</v>
+        <v>-1.0335947224470063</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1214766258818012</v>
+        <v>-1.0093289632936211</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1167087968975962</v>
+        <v>-1.0050379172078365</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1591229957287439</v>
+        <v>-1.0432106961558696</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2011513773284974</v>
+        <v>-1.0810362395956479</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2908032355664851</v>
+        <v>-1.1617229120098367</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3276435461113163</v>
+        <v>-1.1948791915001848</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3534684786912883</v>
+        <v>-1.2181216308221596</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3520973414704791</v>
+        <v>-1.2168876073234314</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3674218984392139</v>
+        <v>-1.2306797085952925</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4073858933766463</v>
+        <v>-1.2666473040389816</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4764224985274421</v>
+        <v>-1.328780248674698</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5216012935117262</v>
+        <v>-1.3694411641605535</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5509979289330067</v>
+        <v>-1.395898136039706</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5730181284125411</v>
+        <v>-1.4157163155712871</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -20670,99 +20670,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5454838279957719E-2</v>
+        <v>-1.3909354451961948E-2</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.740463589262567E-2</v>
+        <v>-5.1664172303363107E-2</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6519394827734765E-2</v>
+        <v>-5.9867455344961289E-2</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.0850857124149092E-2</v>
+        <v>-7.2765771411734181E-2</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.2345308098734277E-2</v>
+        <v>-7.4110777288860855E-2</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.0454996872161172E-2</v>
+        <v>-8.1409497184945057E-2</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15283906376571527</v>
+        <v>-0.13755515738914373</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.7430158949213406E-2</v>
+        <v>-6.068714305429207E-2</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8891093569874093E-2</v>
+        <v>-6.2001984212886684E-2</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0177239240098871E-2</v>
+        <v>-1.8159515316088986E-2</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.4775240004188648E-3</v>
+        <v>-7.6297716003769795E-3</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.298591570548706E-2</v>
+        <v>2.0687324134938356E-2</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0899617644772251E-2</v>
+        <v>4.5809655880295029E-2</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.591151186194394E-2</v>
+        <v>3.2320360675749546E-2</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3229788602525687E-2</v>
+        <v>1.1906809742273119E-2</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9459626112981112E-2</v>
+        <v>5.3513663501682997E-2</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3742749860321326E-2</v>
+        <v>3.936847487428919E-2</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5590039422918766E-2</v>
+        <v>3.2031035480626892E-2</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3726987390673965E-2</v>
+        <v>3.0354288651606567E-2</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2543084505884529E-2</v>
+        <v>2.9288776055296079E-2</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1227628798786127E-2</v>
+        <v>5.5104865918907515E-2</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5347512481169587E-2</v>
+        <v>5.8812761233052638E-2</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2118035225585137E-2</v>
+        <v>-1.0906231703026622E-2</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8397178475350596E-2</v>
+        <v>-1.6557460627815535E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -20771,99 +20771,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2268154831966771</v>
+        <v>-0.2041339348770094</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25515140935664354</v>
+        <v>-0.22963626842097923</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26154496545570977</v>
+        <v>-0.23539046891013876</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25703610736746463</v>
+        <v>-0.23133249663071817</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26284423472406265</v>
+        <v>-0.23655981125165637</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27591761367494061</v>
+        <v>-0.24832585230744655</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12964419266419419</v>
+        <v>-0.11667977339777479</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3945702736413497E-3</v>
+        <v>7.5551132462772152E-3</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3872054475615072E-2</v>
+        <v>8.4484849028053574E-2</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10970698127324684</v>
+        <v>9.8736283145922157E-2</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3550271085857059E-2</v>
+        <v>3.9195243977271352E-2</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12509658879986765</v>
+        <v>0.11258692991988088</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11834181965664131</v>
+        <v>0.10650763769097718</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7768848681260484E-2</v>
+        <v>8.7991963813134427E-2</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9354545886424144E-2</v>
+        <v>5.3419091297781732E-2</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.9726564906035463E-3</v>
+        <v>-3.5753908415431918E-3</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.9425057499636725E-2</v>
+        <v>-2.6482551749673053E-2</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5666071519373761E-2</v>
+        <v>-2.3099464367436384E-2</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.832461601959268E-2</v>
+        <v>-1.6492154417633416E-2</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7435128462147911E-3</v>
+        <v>6.9691615615933115E-3</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.83983751460254E-2</v>
+        <v>2.5558537631422861E-2</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5172508670374013E-2</v>
+        <v>-2.2655257803336614E-2</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12174808054931038</v>
+        <v>-0.10957327249437934</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18474685419208192</v>
+        <v>-0.16627216877287376</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -20872,99 +20872,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28757665729965437</v>
+        <v>-0.25881899156968896</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30822176652066841</v>
+        <v>-0.27739958986860158</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32146883136207854</v>
+        <v>-0.28932194822587076</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32676083014348511</v>
+        <v>-0.29408474712913657</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31799913040836897</v>
+        <v>-0.28619921736753212</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32064857416004056</v>
+        <v>-0.28858371674403649</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26366311042764135</v>
+        <v>-0.23729679938487724</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21622710087788483</v>
+        <v>-0.19460439079009637</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1842351103728698</v>
+        <v>-0.16581159933558282</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15549820803917686</v>
+        <v>-0.13994838723525918</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15567621862053796</v>
+        <v>-0.14010859675848417</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16154434730831596</v>
+        <v>-0.14538991257748438</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18112110022355515</v>
+        <v>-0.16300899020119966</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19327665739778224</v>
+        <v>-0.17394899165800401</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21190945644187359</v>
+        <v>-0.19071851079768623</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21317467252402014</v>
+        <v>-0.19185720527161815</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21437370056449531</v>
+        <v>-0.19293633050804576</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17452858957599693</v>
+        <v>-0.15707573061839722</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15330096477230917</v>
+        <v>-0.13797086829507826</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16573750672011842</v>
+        <v>-0.14916375604810658</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14981543665146854</v>
+        <v>-0.13483389298632167</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1702497584893613</v>
+        <v>-0.15322478264042519</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19634308093169062</v>
+        <v>-0.17670877283852154</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21912687740607387</v>
+        <v>-0.1972141896654665</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -20973,99 +20973,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19380819643812391</v>
+        <v>-0.17442737679431153</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12962349646580867</v>
+        <v>-0.11666114681922782</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22844245666340937</v>
+        <v>-0.20559821099706843</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19716889040606894</v>
+        <v>-0.17745200136546205</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29981017903910373</v>
+        <v>-0.26982916113519334</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14127806523681757</v>
+        <v>-0.12715025871313582</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.50440506289007314</v>
+        <v>-0.45396455660106583</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46077175924192865</v>
+        <v>-0.41469458331773579</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44081509425039483</v>
+        <v>-0.39673358482535537</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.51822530693734137</v>
+        <v>-0.46640277624360721</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42655035682793369</v>
+        <v>-0.38389532114514036</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37922308021669293</v>
+        <v>-0.34130077219502358</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10804747877349984</v>
+        <v>9.7242730896149848E-2</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Qc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4615176521294335E-2</v>
+        <v>4.915365886916491E-2</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43558054403127627</v>
+        <v>-0.39202248962814862</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16653571250381496</v>
+        <v>-0.14988214125343349</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18829451220287002</v>
+        <v>-0.16946506098258302</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13584815311601545</v>
+        <v>-0.12226333780441391</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.73242338154524E-2</v>
+        <v>-2.4591810433907159E-2</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2197760878301255</v>
+        <v>0.19779847904711295</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54042295764152337</v>
+        <v>0.48638066187737106</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6138737694657459</v>
+        <v>0.55248639251917131</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5910718370700131</v>
+        <v>0.5319646533630118</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6720428357571826</v>
+        <v>0.60483855218146432</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -21074,99 +21074,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38132240978026088</v>
+        <v>0.3431901688022348</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35047532861520864</v>
+        <v>0.31542779575368779</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26707039618193917</v>
+        <v>0.2403633565637453</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24396162471944791</v>
+        <v>0.21956546224750312</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21966442296145572</v>
+        <v>0.19769798066531016</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25526659554475578</v>
+        <v>0.22973993599028017</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87511516565132241</v>
+        <v>0.78760364908619007</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1449558529134705</v>
+        <v>1.0304602676221235</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4792792533916554</v>
+        <v>1.33135132805249</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4192145159372336</v>
+        <v>1.2772930643435103</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4290596333145877</v>
+        <v>1.2861536699831289</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4086210843917355</v>
+        <v>1.267758975952562</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4645562977071342</v>
+        <v>1.3181006679364209</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.319292350384409</v>
+        <v>1.1873631153459681</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1735917632049058</v>
+        <v>1.0562325868844153</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1103771416900918</v>
+        <v>0.99933942752108262</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0973834616856541</v>
+        <v>0.98764511551708867</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1421626469783832</v>
+        <v>1.027946382280545</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87970416942056351</v>
+        <v>0.79173375247850719</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85651182856350316</v>
+        <v>0.77086064570715285</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93244847042377321</v>
+        <v>0.83920362338139587</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67691850796486275</v>
+        <v>0.60922665716837643</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31566515258068228</v>
+        <v>0.28409863732261409</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30713451597102021</v>
+        <v>0.27642106437391822</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -21175,99 +21175,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12211099794211318</v>
+        <v>0.10989989814790185</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12239267721899681</v>
+        <v>0.11015340949709714</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12383223240018619</v>
+        <v>0.11144900916016756</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1245215963772818</v>
+        <v>0.11206943673955362</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12865620728372953</v>
+        <v>0.11579058655535658</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12287568737188527</v>
+        <v>0.11058811863469674</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11463782707564361</v>
+        <v>0.10317404436807925</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10507884130444645</v>
+        <v>9.457095717400181E-2</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8509482896557773E-2</v>
+        <v>7.965853460690199E-2</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6484162862951904E-2</v>
+        <v>5.9835746576656711E-2</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0296595564857234E-2</v>
+        <v>6.3266936008371508E-2</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7613364287822964E-2</v>
+        <v>6.9852027859040655E-2</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4546539946482615E-2</v>
+        <v>5.8091885951834357E-2</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5169466356638676E-2</v>
+        <v>7.665251972097481E-2</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0857737459680704E-2</v>
+        <v>8.1771963713712634E-2</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1484772581018239E-2</v>
+        <v>8.233629532291642E-2</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7846217227311951E-2</v>
+        <v>7.9061595504580764E-2</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9376433244889822E-2</v>
+        <v>8.0438789920400849E-2</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.4237844611682822E-2</v>
+        <v>7.5814060150514548E-2</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6084066261337905E-2</v>
+        <v>8.6475659635204122E-2</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10046355527783214</v>
+        <v>9.0417199750048929E-2</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11531544080769178</v>
+        <v>0.10378389672692259</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10706181716354141</v>
+        <v>9.6355635447187268E-2</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11015084396436058</v>
+        <v>9.9135759567924517E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2030.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710DB27-1406-48DF-9065-1DA6220ABB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEEB211-2FEC-49A4-A404-C15D189F7DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="33" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13770,8 +13770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A3:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43813,7 +43813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025AC836-7F13-42DE-B14D-49CFE787EA93}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y15"/>
     </sheetView>
   </sheetViews>
@@ -45472,7 +45472,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
